--- a/ComparissonTable_Thesis.xlsx
+++ b/ComparissonTable_Thesis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG\Desktop\EKPA\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strat\Desktop\EKPA\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D139F0B-2E63-46EE-822F-6B01A2AA3A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F9BCF-5BB4-45C3-BE8D-641B27EFEA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3BEB7030-4BE0-4DE3-B2A0-E298BEBA13B6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21600" xr2:uid="{3BEB7030-4BE0-4DE3-B2A0-E298BEBA13B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,38 +185,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,112 +534,118 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>1087</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>65</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>54</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>0.95299999999999996</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="5">
+        <v>1093</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1377</v>
+      </c>
+      <c r="D4" s="4">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.443</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
+    <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>

--- a/ComparissonTable_Thesis.xlsx
+++ b/ComparissonTable_Thesis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strat\Desktop\EKPA\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG\Desktop\EKPA\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F9BCF-5BB4-45C3-BE8D-641B27EFEA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33C0477-3132-48CD-8B25-E30F22EEB13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21600" xr2:uid="{3BEB7030-4BE0-4DE3-B2A0-E298BEBA13B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3BEB7030-4BE0-4DE3-B2A0-E298BEBA13B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Model</t>
   </si>
@@ -74,7 +74,10 @@
     <t>WAT</t>
   </si>
   <si>
-    <t>GPT-3.5</t>
+    <t>GPT-(one)</t>
+  </si>
+  <si>
+    <t>GPT-(few)</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +218,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -531,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258AD91F-87AC-4732-AC34-8BB3F74463ED}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,19 +640,43 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="12">
+        <v>1044</v>
+      </c>
+      <c r="C5" s="12">
+        <v>301</v>
+      </c>
+      <c r="D5" s="12">
+        <v>88</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>

--- a/ComparissonTable_Thesis.xlsx
+++ b/ComparissonTable_Thesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG\Desktop\EKPA\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33C0477-3132-48CD-8B25-E30F22EEB13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6E779F-B209-461B-87D2-2A873281D7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3BEB7030-4BE0-4DE3-B2A0-E298BEBA13B6}"/>
   </bookViews>
@@ -84,7 +84,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +100,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -188,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,21 +234,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -541,7 +580,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,14 +593,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
@@ -605,13 +644,13 @@
       <c r="D3" s="4">
         <v>54</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="13">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="13">
         <v>0.95299999999999996</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="13">
         <v>0.94799999999999995</v>
       </c>
       <c r="H3" s="4"/>
@@ -629,51 +668,63 @@
       <c r="D4" s="4">
         <v>34</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="13">
         <v>0.443</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="13">
         <v>0.97</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="13">
         <v>0.60799999999999998</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>1044</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>301</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>88</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="14">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="14">
         <v>0.92200000000000004</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="14">
         <v>0.84299999999999997</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
+      <c r="B6" s="6">
+        <v>1116</v>
+      </c>
+      <c r="C6" s="7">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.97</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -681,6 +732,9 @@
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E3:G6">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ComparissonTable_Thesis.xlsx
+++ b/ComparissonTable_Thesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG\Desktop\EKPA\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6E779F-B209-461B-87D2-2A873281D7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A24636B-407B-48E8-83CF-8E754C2BE9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3BEB7030-4BE0-4DE3-B2A0-E298BEBA13B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Model</t>
   </si>
@@ -68,9 +68,6 @@
     <t>REL</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>WAT</t>
   </si>
   <si>
@@ -78,6 +75,21 @@
   </si>
   <si>
     <t>GPT-(few)</t>
+  </si>
+  <si>
+    <t>Accuracy(%)</t>
+  </si>
+  <si>
+    <t>~98.5%</t>
+  </si>
+  <si>
+    <t>~99.5%</t>
+  </si>
+  <si>
+    <t>~96.5%</t>
+  </si>
+  <si>
+    <t>~97.0%</t>
   </si>
 </sst>
 </file>
@@ -208,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,22 +250,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,7 +604,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,14 +617,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
@@ -628,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -644,20 +668,22 @@
       <c r="D3" s="4">
         <v>54</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>0.95299999999999996</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
         <v>1093</v>
@@ -668,20 +694,22 @@
       <c r="D4" s="4">
         <v>34</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>0.443</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>0.97</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>0.60799999999999998</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="10">
         <v>1044</v>
@@ -692,20 +720,22 @@
       <c r="D5" s="10">
         <v>88</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>0.92200000000000004</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>0.84299999999999997</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6">
         <v>1116</v>
@@ -716,16 +746,18 @@
       <c r="D6" s="6">
         <v>20</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>0.95899999999999996</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>0.98199999999999998</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>0.97</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/ComparissonTable_Thesis.xlsx
+++ b/ComparissonTable_Thesis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BG\Desktop\EKPA\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strat\Desktop\EKPA\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A24636B-407B-48E8-83CF-8E754C2BE9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D18014-B7C8-4584-A00A-67C920152EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3BEB7030-4BE0-4DE3-B2A0-E298BEBA13B6}"/>
+    <workbookView xWindow="4980" yWindow="690" windowWidth="38700" windowHeight="15885" xr2:uid="{3BEB7030-4BE0-4DE3-B2A0-E298BEBA13B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Accuracy(%)</t>
   </si>
   <si>
-    <t>~98.5%</t>
-  </si>
-  <si>
     <t>~99.5%</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>~97.0%</t>
+  </si>
+  <si>
+    <t>~99.0%</t>
   </si>
 </sst>
 </file>
@@ -271,14 +271,14 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,7 +604,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,14 +617,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
@@ -677,8 +677,8 @@
       <c r="G3" s="11">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>14</v>
+      <c r="H3" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
         <v>0.60799999999999998</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
         <v>0.97</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
